--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2644788.938958011</v>
+        <v>2760223.029699464</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>68.11693918766142</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>68.11693918766132</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>32.22875728971669</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>13.45644170423142</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.8837547751708</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8837547751708</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.0931331306631</v>
+        <v>12.25188473404939</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760071</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750907</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>176.614677433676</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>155.1087909948505</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>126.1515335422565</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>31.12015676003301</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074822</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505418</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>188.8837547751708</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8837547751708</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.59597807527963</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355257</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589184</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>42.85958240662971</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>317.5349728777734</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>393.8498362229839</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>134.0447243576145</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.32239427394804</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.0133056736541</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>147.6410308210114</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>159.8103881934324</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>179.7186804608953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>68.41584059195273</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>20.88994825141581</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833456</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444127</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>36.39209596079192</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.0860809359004</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>54.29785174158985</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>111.3062202753121</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>78.71385496658196</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>93.40444476188468</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>249.0584607366395</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>97.02629574295609</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2935157990533</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,22 +3714,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1474991249032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>91.66636605273428</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>120.6127326838975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.524925799985</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>122.8199531272439</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>121.8455631377186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097407</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097407</v>
+        <v>414.0172523312952</v>
       </c>
       <c r="V2" t="n">
-        <v>293.4024563932559</v>
+        <v>414.0172523312952</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148101</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148101</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832528</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>338.7084783396673</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V3" t="n">
-        <v>547.0901982909854</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W3" t="n">
-        <v>357.6704132745007</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6704132745007</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>371.2627786323104</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.0732596219585</v>
+        <v>459.0187374024496</v>
       </c>
       <c r="C5" t="n">
-        <v>226.0732596219585</v>
+        <v>459.0187374024496</v>
       </c>
       <c r="D5" t="n">
-        <v>35.28158813188693</v>
+        <v>459.0187374024496</v>
       </c>
       <c r="E5" t="n">
-        <v>35.28158813188693</v>
+        <v>459.0187374024496</v>
       </c>
       <c r="F5" t="n">
-        <v>28.33608738268346</v>
+        <v>452.0732366532461</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201366</v>
+        <v>439.6975955077417</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201366</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201366</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590493</v>
+        <v>111.6705539017207</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543585</v>
+        <v>277.9807166746957</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186808</v>
+        <v>521.2049416030729</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398426</v>
+        <v>823.5081935709135</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681865</v>
+        <v>1135.316836582746</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875737</v>
+        <v>1416.413635079233</v>
       </c>
       <c r="P5" t="n">
-        <v>739.391360757479</v>
+        <v>1621.82224833275</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006833</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="R5" t="n">
-        <v>755.5350191006833</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="S5" t="n">
-        <v>595.2635951864503</v>
+        <v>1586.994975598223</v>
       </c>
       <c r="T5" t="n">
-        <v>595.2635951864503</v>
+        <v>1586.994975598223</v>
       </c>
       <c r="U5" t="n">
-        <v>416.86493111203</v>
+        <v>1333.357011269587</v>
       </c>
       <c r="V5" t="n">
-        <v>416.86493111203</v>
+        <v>1002.294123926016</v>
       </c>
       <c r="W5" t="n">
-        <v>416.86493111203</v>
+        <v>1002.294123926016</v>
       </c>
       <c r="X5" t="n">
-        <v>416.86493111203</v>
+        <v>1002.294123926016</v>
       </c>
       <c r="Y5" t="n">
-        <v>416.86493111203</v>
+        <v>845.6185774665714</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220.9982314409518</v>
+        <v>580.4162616464721</v>
       </c>
       <c r="C6" t="n">
-        <v>46.54520215982478</v>
+        <v>405.9632323653451</v>
       </c>
       <c r="D6" t="n">
-        <v>46.54520215982478</v>
+        <v>405.9632323653451</v>
       </c>
       <c r="E6" t="n">
-        <v>46.54520215982478</v>
+        <v>278.5374409085204</v>
       </c>
       <c r="F6" t="n">
-        <v>46.54520215982478</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="G6" t="n">
-        <v>46.54520215982478</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="H6" t="n">
-        <v>46.54520215982478</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I6" t="n">
-        <v>15.11070038201366</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201366</v>
+        <v>61.66788464787477</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340895</v>
+        <v>186.1577239806051</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208087</v>
+        <v>399.8722171189958</v>
       </c>
       <c r="M6" t="n">
-        <v>340.451145191419</v>
+        <v>668.6238185223469</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548626</v>
+        <v>958.8971200352439</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747579</v>
+        <v>1202.220686228314</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165459</v>
+        <v>1378.176233639502</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994199</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994199</v>
+        <v>1401.100270703767</v>
       </c>
       <c r="S6" t="n">
-        <v>602.5815744210948</v>
+        <v>1258.309378699362</v>
       </c>
       <c r="T6" t="n">
-        <v>602.5815744210948</v>
+        <v>1062.768760419117</v>
       </c>
       <c r="U6" t="n">
-        <v>411.7899029310233</v>
+        <v>834.6536183746738</v>
       </c>
       <c r="V6" t="n">
-        <v>220.9982314409518</v>
+        <v>834.6536183746738</v>
       </c>
       <c r="W6" t="n">
-        <v>220.9982314409518</v>
+        <v>580.4162616464721</v>
       </c>
       <c r="X6" t="n">
-        <v>220.9982314409518</v>
+        <v>580.4162616464721</v>
       </c>
       <c r="Y6" t="n">
-        <v>220.9982314409518</v>
+        <v>580.4162616464721</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="C7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="D7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="E7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="F7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="G7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="H7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J7" t="n">
-        <v>29.11005739570313</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201366</v>
+        <v>64.24066662574633</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426279</v>
+        <v>132.1299861584104</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747896</v>
+        <v>206.9680378347956</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628076</v>
+        <v>287.8841338195346</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548054</v>
+        <v>342.3101561934691</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548054</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548054</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548054</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548054</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548054</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548054</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="V7" t="n">
-        <v>69.10599484548054</v>
+        <v>77.85056379820165</v>
       </c>
       <c r="W7" t="n">
-        <v>69.10599484548054</v>
+        <v>77.85056379820165</v>
       </c>
       <c r="X7" t="n">
-        <v>69.10599484548054</v>
+        <v>77.85056379820165</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.10599484548054</v>
+        <v>34.5580563167575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484278</v>
+        <v>1094.488952315158</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.336584543866</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="D8" t="n">
-        <v>899.0708859371159</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="E8" t="n">
-        <v>513.2826333388716</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="F8" t="n">
-        <v>506.3371325896682</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>1837.396939561084</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>1484.62828429097</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>1484.62828429097</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.8989415484</v>
+        <v>1094.488952315158</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>770.3503244351368</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1146.325960220159</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1146.325960220159</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>938.5656614552049</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.3683227675136</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452389</v>
+        <v>265.6048588347134</v>
       </c>
       <c r="W10" t="n">
-        <v>609.2899331452389</v>
+        <v>265.6048588347134</v>
       </c>
       <c r="X10" t="n">
-        <v>609.2899331452389</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.2899331452389</v>
+        <v>43.3691965380931</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>337.3280009388789</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358621</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5591,25 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481584</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O18" t="n">
-        <v>4435.461999481584</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
         <v>4690.833152398593</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.800778399825</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>212.6630592897471</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1192.200273794374</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289434</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>3212.252935505192</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>3369.710724020924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>3997.308687575531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>108.8705539198698</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859342</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2418223735984</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,16 +6727,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6743,7 +6745,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557011</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2877.307316025034</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3474.685803651586</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>4102.283767206192</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.19349744548</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306002</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378095</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D34" t="n">
-        <v>2655.833190378095</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E34" t="n">
-        <v>2655.833190378095</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2655.833190378095</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420636</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177789</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279772</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136242</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>2946.364478946742</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>2777.428296018835</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>2627.3116566065</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>4409.971958717178</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>4120.896732061376</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>3866.21224385549</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.978273055629</v>
+        <v>3576.795073818529</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>3348.805522920512</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>3128.012943776982</v>
       </c>
     </row>
     <row r="38">
@@ -7163,46 +7165,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4227.652312159534</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953647</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912099</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683283</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404214</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>345.1496313774758</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3112.537432147379</v>
+        <v>3168.568054801518</v>
       </c>
       <c r="C46" t="n">
-        <v>2943.601249219472</v>
+        <v>2999.631871873611</v>
       </c>
       <c r="D46" t="n">
-        <v>2793.484609807137</v>
+        <v>2999.631871873611</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7828,28 +7830,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4567.756825996858</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T46" t="n">
-        <v>4348.155361019799</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U46" t="n">
-        <v>4059.080134363996</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V46" t="n">
-        <v>3804.39564615811</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W46" t="n">
-        <v>3514.978476121149</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X46" t="n">
-        <v>3514.978476121149</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="Y46" t="n">
-        <v>3294.185896977619</v>
+        <v>3350.216519631757</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.60579027761642</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>5.713750098836471</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.727996117236472</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>106.4657939283489</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>111.4161395899846</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823462</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.902616885432</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.43691740069056</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>112.948969357038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35.12774237125711</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>72.119693530384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>37.12601365260468</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.3791545843322</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2294825375376</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>75.0369752643409</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>28.00274033431481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>56.99921249228387</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>23.61400951932531</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>59.18072286392599</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385633</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
@@ -26350,10 +26352,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218518004</v>
+        <v>270592.3620253096</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385749</v>
+        <v>115410.054023196</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>601443.2075742645</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811546704</v>
+        <v>62913.63765881909</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694191</v>
+        <v>27875.2536219756</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551165</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444456</v>
+        <v>206604.4229263469</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405247</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189213</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622567</v>
+        <v>76435.73471936799</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.807628555</v>
+        <v>-249519.8076285555</v>
       </c>
       <c r="C6" t="n">
-        <v>340625.4544088448</v>
+        <v>123726.9404670098</v>
       </c>
       <c r="D6" t="n">
-        <v>-186337.9089659872</v>
+        <v>302547.3341700685</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411009</v>
+        <v>-52716.37662580877</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.8309484561</v>
+        <v>548726.8309484558</v>
       </c>
       <c r="G6" t="n">
+        <v>548726.8309484556</v>
+      </c>
+      <c r="H6" t="n">
+        <v>548726.830948456</v>
+      </c>
+      <c r="I6" t="n">
         <v>548726.8309484558</v>
       </c>
-      <c r="H6" t="n">
-        <v>548726.8309484555</v>
-      </c>
-      <c r="I6" t="n">
-        <v>548726.8309484557</v>
-      </c>
       <c r="J6" t="n">
-        <v>499661.8862199114</v>
+        <v>499661.886219911</v>
       </c>
       <c r="K6" t="n">
-        <v>548377.2820673011</v>
+        <v>485813.1932896366</v>
       </c>
       <c r="L6" t="n">
-        <v>386111.3835790365</v>
+        <v>520851.57732648</v>
       </c>
       <c r="M6" t="n">
-        <v>463671.8030129444</v>
+        <v>391580.4503968582</v>
       </c>
       <c r="N6" t="n">
         <v>548726.8309484557</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484558</v>
+        <v>548726.830948456</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484558</v>
+        <v>548726.8309484557</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373986</v>
+        <v>758.8996292950596</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751708</v>
+        <v>431.9757039594688</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724493877</v>
+        <v>210.4296883821548</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558997</v>
+        <v>94.81103524262517</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>1.35816760885087</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271223</v>
+        <v>110.139252766695</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608850636</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271223</v>
+        <v>110.139252766695</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.35816760885087</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271223</v>
+        <v>110.139252766695</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27430,22 +27432,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988668</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>183.0523213773689</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>281.1240295297517</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>140.479741698599</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27512,19 +27514,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>219.3441454451938</v>
+        <v>45.27499998310518</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098427</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.4700942971627</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976601</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.8500868883098</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7992868455121</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380509</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804572</v>
+        <v>23.94240680425958</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>74.5542071234027</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>231.1291476612031</v>
       </c>
     </row>
     <row r="6">
@@ -27701,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>31.49354691314444</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.69781888615964</v>
+        <v>43.32085084937529</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515532</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167134</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.97984818920438</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91683237425445</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>125.643817356299</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>17.32496454629602</v>
+        <v>30.24193919304074</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,25 +27815,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882062</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319866</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510617</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279248</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>175.7250709454651</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47.73791889323411</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>17.07188943046958</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.6637746307012</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27947,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,16 +27988,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.5095859079892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.696349715383093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28983,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471952</v>
+        <v>3.050852781085664</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247339</v>
+        <v>31.24454604429357</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235503</v>
+        <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265765</v>
+        <v>258.9373162286697</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212743</v>
+        <v>388.0799144520259</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025579</v>
+        <v>481.4474502511764</v>
       </c>
       <c r="M5" t="n">
-        <v>387.987195874911</v>
+        <v>535.7030533968086</v>
       </c>
       <c r="N5" t="n">
-        <v>394.265234332292</v>
+        <v>544.3712888610683</v>
       </c>
       <c r="O5" t="n">
-        <v>372.293480734199</v>
+        <v>514.0343715191477</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925476</v>
+        <v>438.7164434860953</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736457</v>
+        <v>329.4577782634648</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160864</v>
+        <v>191.6431310098725</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115467</v>
+        <v>69.52130774898966</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025977</v>
+        <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577562</v>
+        <v>0.2440682224868531</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314405</v>
+        <v>1.632350146030883</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682596</v>
+        <v>15.76506588403511</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380736</v>
+        <v>56.20152915062471</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115114</v>
+        <v>154.2212916475932</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565765</v>
+        <v>263.5887514316624</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509851</v>
+        <v>354.427605172188</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973822</v>
+        <v>413.6002979658074</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161047</v>
+        <v>424.5470671468655</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453487</v>
+        <v>388.3776244374444</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676515</v>
+        <v>311.7072835872482</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010458</v>
+        <v>208.3680642547492</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229261</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329605</v>
+        <v>30.32018801947713</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337444</v>
+        <v>6.579516597378864</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963191</v>
+        <v>0.107391456975716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264563</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989773</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095926</v>
+        <v>41.15475366734521</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782046</v>
+        <v>96.75348224635538</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269828</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>147.357339152197</v>
+        <v>203.4597465162526</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124699</v>
+        <v>214.5197755399133</v>
       </c>
       <c r="N7" t="n">
-        <v>151.673357585235</v>
+        <v>209.4189747528483</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742668</v>
+        <v>193.4323186275343</v>
       </c>
       <c r="P7" t="n">
-        <v>119.875384620327</v>
+        <v>165.5147650514995</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624718</v>
+        <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610774</v>
+        <v>61.53307486054695</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904742</v>
+        <v>23.84935392391194</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976676</v>
+        <v>5.847259438830785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417041</v>
+        <v>0.07464586517656333</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,28 +32077,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.9250669264611</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>165.3312853305619</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,19 +32791,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>424.0909547148531</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500298</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4978307576753</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>424.0909547148531</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890246</v>
+        <v>77.89141170198337</v>
       </c>
       <c r="K5" t="n">
-        <v>60.9801126762938</v>
+        <v>167.9900634070453</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325707</v>
+        <v>245.6810352811892</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476382</v>
+        <v>305.3568201695359</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357011</v>
+        <v>314.9582252644773</v>
       </c>
       <c r="O5" t="n">
-        <v>142.1952693125122</v>
+        <v>283.936160097461</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727807</v>
+        <v>207.4834477308257</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919623</v>
+        <v>107.1520883890153</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092654</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221746</v>
+        <v>125.7473124573034</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711109</v>
+        <v>215.8732253923138</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753639</v>
+        <v>271.4662640437891</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327714</v>
+        <v>293.2053550635322</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009043</v>
+        <v>245.7813799929999</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332128</v>
+        <v>177.7328761729179</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502424</v>
+        <v>68.38629016872773</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554427</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095871</v>
+        <v>68.57507023501427</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486481</v>
+        <v>75.59399159230824</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000182</v>
+        <v>81.73343028761511</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322424016</v>
+        <v>54.97578017569148</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235185</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,28 +35725,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124453946</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121309</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096312</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4947102704086</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280115</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>314.9434509778011</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>281.4947102704086</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
